--- a/giovinazzo-dati-covid-latest.xlsx
+++ b/giovinazzo-dati-covid-latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelesollecito/Desktop/file_Thomas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denic\OneDrive\Documents\Repositories\dati\giovinazzo-dati-covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60A91D6-F955-184B-A8B9-64F27286AA1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A1B806-2C92-41A6-9F81-4FD4F3020425}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="460" windowWidth="35420" windowHeight="17860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attualmente_positivi" sheetId="1" r:id="rId1"/>
@@ -204,6 +204,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="2400"/>
+              <a:t>Attualmente positivi</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -217,7 +242,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -269,7 +294,7 @@
             <c:numRef>
               <c:f>attualmente_positivi!$A$2:$A$126</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="125"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
@@ -1053,7 +1078,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1075,7 +1100,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1133,7 +1158,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1160,6 +1185,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1219,6 +1275,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="2400"/>
+              <a:t>Totale contagiati ed incremento giornaliero</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1232,7 +1313,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1284,7 +1365,7 @@
             <c:numRef>
               <c:f>totale_contagiati!$A$2:$A$109</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="1">
                   <c:v>43922</c:v>
@@ -1944,6 +2025,699 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7992-41AA-B684-A5E5A65356E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>totale_contagiati!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>incremento giornaliero</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>totale_contagiati!$A$2:$A$109</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="1">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44029</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44059</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44087</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44094</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44095</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44109</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44112</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44114</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44115</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44118</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44122</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44125</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44126</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44129</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44131</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44138</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44139</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44140</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44141</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44142</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44144</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44149</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>totale_contagiati!$C$2:$C$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D41B-4738-9E9D-366C4A42D6C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1988,7 +2762,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2047,7 +2821,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2074,6 +2848,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3640,18 +4445,18 @@
   <dimension ref="A1:B126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G129" sqref="G129"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3659,7 +4464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43922</v>
       </c>
@@ -3667,7 +4472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43923</v>
       </c>
@@ -3675,7 +4480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43925</v>
       </c>
@@ -3683,7 +4488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43927</v>
       </c>
@@ -3691,7 +4496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43928</v>
       </c>
@@ -3699,7 +4504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43929</v>
       </c>
@@ -3707,7 +4512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43930</v>
       </c>
@@ -3715,7 +4520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43931</v>
       </c>
@@ -3723,7 +4528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43932</v>
       </c>
@@ -3731,7 +4536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43934</v>
       </c>
@@ -3739,7 +4544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43935</v>
       </c>
@@ -3747,7 +4552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43936</v>
       </c>
@@ -3755,7 +4560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43937</v>
       </c>
@@ -3763,7 +4568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43938</v>
       </c>
@@ -3771,7 +4576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43939</v>
       </c>
@@ -3779,7 +4584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43940</v>
       </c>
@@ -3787,7 +4592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43941</v>
       </c>
@@ -3795,7 +4600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43942</v>
       </c>
@@ -3803,7 +4608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43943</v>
       </c>
@@ -3811,7 +4616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43945</v>
       </c>
@@ -3819,7 +4624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43946</v>
       </c>
@@ -3827,7 +4632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43947</v>
       </c>
@@ -3835,7 +4640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43949</v>
       </c>
@@ -3843,7 +4648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43950</v>
       </c>
@@ -3851,7 +4656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43951</v>
       </c>
@@ -3859,7 +4664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43952</v>
       </c>
@@ -3867,7 +4672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43953</v>
       </c>
@@ -3875,7 +4680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43955</v>
       </c>
@@ -3883,7 +4688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43956</v>
       </c>
@@ -3891,7 +4696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43958</v>
       </c>
@@ -3899,7 +4704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43959</v>
       </c>
@@ -3907,7 +4712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>43960</v>
       </c>
@@ -3915,7 +4720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>43961</v>
       </c>
@@ -3923,7 +4728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>43962</v>
       </c>
@@ -3931,7 +4736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>43963</v>
       </c>
@@ -3939,7 +4744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>43964</v>
       </c>
@@ -3947,7 +4752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>43967</v>
       </c>
@@ -3955,7 +4760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>43968</v>
       </c>
@@ -3963,7 +4768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>43969</v>
       </c>
@@ -3971,7 +4776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>43970</v>
       </c>
@@ -3979,7 +4784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>43971</v>
       </c>
@@ -3987,7 +4792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>43972</v>
       </c>
@@ -3995,7 +4800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43973</v>
       </c>
@@ -4003,7 +4808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43974</v>
       </c>
@@ -4011,7 +4816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>43975</v>
       </c>
@@ -4019,7 +4824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>43977</v>
       </c>
@@ -4027,7 +4832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>43978</v>
       </c>
@@ -4035,7 +4840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>43979</v>
       </c>
@@ -4043,7 +4848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>43980</v>
       </c>
@@ -4051,7 +4856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>43981</v>
       </c>
@@ -4059,7 +4864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>43982</v>
       </c>
@@ -4067,7 +4872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>43983</v>
       </c>
@@ -4075,7 +4880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>43984</v>
       </c>
@@ -4083,7 +4888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>43985</v>
       </c>
@@ -4091,7 +4896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>43987</v>
       </c>
@@ -4099,7 +4904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>43988</v>
       </c>
@@ -4107,7 +4912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>44029</v>
       </c>
@@ -4115,7 +4920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>44030</v>
       </c>
@@ -4123,7 +4928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>44033</v>
       </c>
@@ -4131,7 +4936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>44036</v>
       </c>
@@ -4139,7 +4944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>44038</v>
       </c>
@@ -4147,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>44053</v>
       </c>
@@ -4155,7 +4960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>44055</v>
       </c>
@@ -4163,7 +4968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>44056</v>
       </c>
@@ -4171,7 +4976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>44057</v>
       </c>
@@ -4179,7 +4984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>44058</v>
       </c>
@@ -4187,7 +4992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>44059</v>
       </c>
@@ -4195,7 +5000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>44060</v>
       </c>
@@ -4203,7 +5008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>44061</v>
       </c>
@@ -4211,7 +5016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>44063</v>
       </c>
@@ -4219,7 +5024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>44064</v>
       </c>
@@ -4227,7 +5032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>44065</v>
       </c>
@@ -4235,7 +5040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>44066</v>
       </c>
@@ -4243,7 +5048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>44067</v>
       </c>
@@ -4251,7 +5056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>44068</v>
       </c>
@@ -4259,7 +5064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>44069</v>
       </c>
@@ -4267,7 +5072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>44070</v>
       </c>
@@ -4275,7 +5080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>44072</v>
       </c>
@@ -4283,7 +5088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>44074</v>
       </c>
@@ -4291,7 +5096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>44076</v>
       </c>
@@ -4299,7 +5104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>44079</v>
       </c>
@@ -4307,7 +5112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>44080</v>
       </c>
@@ -4315,7 +5120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>44082</v>
       </c>
@@ -4323,7 +5128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>44083</v>
       </c>
@@ -4331,7 +5136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>44084</v>
       </c>
@@ -4339,7 +5144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>44086</v>
       </c>
@@ -4347,7 +5152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>44087</v>
       </c>
@@ -4355,7 +5160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>44088</v>
       </c>
@@ -4363,7 +5168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>44090</v>
       </c>
@@ -4371,7 +5176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>44094</v>
       </c>
@@ -4379,7 +5184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>44095</v>
       </c>
@@ -4387,7 +5192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>44098</v>
       </c>
@@ -4395,7 +5200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>44100</v>
       </c>
@@ -4403,7 +5208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>44102</v>
       </c>
@@ -4411,7 +5216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>44103</v>
       </c>
@@ -4419,7 +5224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>44104</v>
       </c>
@@ -4427,7 +5232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>44106</v>
       </c>
@@ -4435,7 +5240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>44107</v>
       </c>
@@ -4443,7 +5248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>44109</v>
       </c>
@@ -4451,7 +5256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>44111</v>
       </c>
@@ -4459,7 +5264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>44112</v>
       </c>
@@ -4467,7 +5272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>44114</v>
       </c>
@@ -4475,7 +5280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>44115</v>
       </c>
@@ -4483,7 +5288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>44118</v>
       </c>
@@ -4491,7 +5296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>44119</v>
       </c>
@@ -4499,7 +5304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>44122</v>
       </c>
@@ -4507,7 +5312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>44125</v>
       </c>
@@ -4515,7 +5320,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>44126</v>
       </c>
@@ -4523,7 +5328,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>44128</v>
       </c>
@@ -4531,7 +5336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>44129</v>
       </c>
@@ -4539,7 +5344,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>44130</v>
       </c>
@@ -4547,7 +5352,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>44131</v>
       </c>
@@ -4555,7 +5360,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>44133</v>
       </c>
@@ -4563,7 +5368,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>44135</v>
       </c>
@@ -4571,7 +5376,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>44136</v>
       </c>
@@ -4579,7 +5384,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>44137</v>
       </c>
@@ -4587,7 +5392,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>44138</v>
       </c>
@@ -4595,7 +5400,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>44139</v>
       </c>
@@ -4603,7 +5408,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>44140</v>
       </c>
@@ -4611,7 +5416,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>44141</v>
       </c>
@@ -4619,7 +5424,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>44142</v>
       </c>
@@ -4627,7 +5432,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>44144</v>
       </c>
@@ -4635,7 +5440,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>44147</v>
       </c>
@@ -4643,7 +5448,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>44149</v>
       </c>
@@ -4651,7 +5456,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
     </row>
   </sheetData>
@@ -4666,19 +5471,19 @@
   <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V40" sqref="V40"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="14" style="4" customWidth="1"/>
-    <col min="4" max="13" width="9.1640625" style="4"/>
+    <col min="4" max="13" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4701,7 +5506,7 @@
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4736,7 +5541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43922</v>
       </c>
@@ -4777,7 +5582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43923</v>
       </c>
@@ -4818,7 +5623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43925</v>
       </c>
@@ -4859,7 +5664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43928</v>
       </c>
@@ -4900,7 +5705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43929</v>
       </c>
@@ -4941,7 +5746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43930</v>
       </c>
@@ -4982,7 +5787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43931</v>
       </c>
@@ -5023,7 +5828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43934</v>
       </c>
@@ -5064,7 +5869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43935</v>
       </c>
@@ -5105,7 +5910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43936</v>
       </c>
@@ -5146,7 +5951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43937</v>
       </c>
@@ -5187,7 +5992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43938</v>
       </c>
@@ -5228,7 +6033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43939</v>
       </c>
@@ -5269,7 +6074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43940</v>
       </c>
@@ -5310,7 +6115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43941</v>
       </c>
@@ -5351,7 +6156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43942</v>
       </c>
@@ -5392,7 +6197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43943</v>
       </c>
@@ -5433,7 +6238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43945</v>
       </c>
@@ -5474,7 +6279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43946</v>
       </c>
@@ -5515,7 +6320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43947</v>
       </c>
@@ -5556,7 +6361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43949</v>
       </c>
@@ -5597,7 +6402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43950</v>
       </c>
@@ -5638,7 +6443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43951</v>
       </c>
@@ -5679,7 +6484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43952</v>
       </c>
@@ -5720,7 +6525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43953</v>
       </c>
@@ -5761,7 +6566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43955</v>
       </c>
@@ -5802,7 +6607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43956</v>
       </c>
@@ -5843,7 +6648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43958</v>
       </c>
@@ -5884,7 +6689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43959</v>
       </c>
@@ -5925,7 +6730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43960</v>
       </c>
@@ -5966,7 +6771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>43961</v>
       </c>
@@ -6007,7 +6812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>43962</v>
       </c>
@@ -6048,7 +6853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>43963</v>
       </c>
@@ -6089,7 +6894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>43964</v>
       </c>
@@ -6130,7 +6935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>43967</v>
       </c>
@@ -6171,7 +6976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>43968</v>
       </c>
@@ -6212,7 +7017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>43969</v>
       </c>
@@ -6253,7 +7058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>43970</v>
       </c>
@@ -6294,7 +7099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>43971</v>
       </c>
@@ -6335,7 +7140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>43972</v>
       </c>
@@ -6376,7 +7181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>43973</v>
       </c>
@@ -6417,7 +7222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43980</v>
       </c>
@@ -6458,7 +7263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44029</v>
       </c>
@@ -6499,7 +7304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44053</v>
       </c>
@@ -6540,7 +7345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>44055</v>
       </c>
@@ -6581,7 +7386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>44056</v>
       </c>
@@ -6622,7 +7427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>44057</v>
       </c>
@@ -6663,7 +7468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>44058</v>
       </c>
@@ -6704,7 +7509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>44059</v>
       </c>
@@ -6745,7 +7550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>44060</v>
       </c>
@@ -6786,7 +7591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>44061</v>
       </c>
@@ -6827,7 +7632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>44063</v>
       </c>
@@ -6868,7 +7673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>44064</v>
       </c>
@@ -6909,7 +7714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>44065</v>
       </c>
@@ -6950,7 +7755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>44066</v>
       </c>
@@ -6991,7 +7796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>44067</v>
       </c>
@@ -7032,7 +7837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>44068</v>
       </c>
@@ -7073,7 +7878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>44069</v>
       </c>
@@ -7114,7 +7919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>44070</v>
       </c>
@@ -7155,7 +7960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>44072</v>
       </c>
@@ -7196,7 +8001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>44074</v>
       </c>
@@ -7237,7 +8042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>44076</v>
       </c>
@@ -7278,7 +8083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>44077</v>
       </c>
@@ -7319,7 +8124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>44078</v>
       </c>
@@ -7360,7 +8165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>44079</v>
       </c>
@@ -7401,7 +8206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>44080</v>
       </c>
@@ -7442,7 +8247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>44082</v>
       </c>
@@ -7483,7 +8288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>44083</v>
       </c>
@@ -7524,7 +8329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>44084</v>
       </c>
@@ -7565,7 +8370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>44086</v>
       </c>
@@ -7606,7 +8411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>44087</v>
       </c>
@@ -7647,7 +8452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>44088</v>
       </c>
@@ -7688,7 +8493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>44090</v>
       </c>
@@ -7729,7 +8534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>44094</v>
       </c>
@@ -7770,7 +8575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>44095</v>
       </c>
@@ -7811,7 +8616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>44098</v>
       </c>
@@ -7852,7 +8657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>44102</v>
       </c>
@@ -7893,7 +8698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>44103</v>
       </c>
@@ -7934,7 +8739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>44104</v>
       </c>
@@ -7975,7 +8780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>44106</v>
       </c>
@@ -8016,7 +8821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>44107</v>
       </c>
@@ -8057,7 +8862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>44109</v>
       </c>
@@ -8098,7 +8903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>44111</v>
       </c>
@@ -8139,7 +8944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>44112</v>
       </c>
@@ -8180,7 +8985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>44114</v>
       </c>
@@ -8221,7 +9026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>44115</v>
       </c>
@@ -8262,7 +9067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>44118</v>
       </c>
@@ -8303,7 +9108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>44119</v>
       </c>
@@ -8344,7 +9149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>44122</v>
       </c>
@@ -8385,7 +9190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>44125</v>
       </c>
@@ -8426,7 +9231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>44126</v>
       </c>
@@ -8467,7 +9272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>44128</v>
       </c>
@@ -8508,7 +9313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>44129</v>
       </c>
@@ -8549,7 +9354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>44130</v>
       </c>
@@ -8590,7 +9395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>44131</v>
       </c>
@@ -8631,7 +9436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>44133</v>
       </c>
@@ -8672,7 +9477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>44135</v>
       </c>
@@ -8713,7 +9518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>44136</v>
       </c>
@@ -8754,7 +9559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>44137</v>
       </c>
@@ -8795,7 +9600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>44138</v>
       </c>
@@ -8836,7 +9641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>44139</v>
       </c>
@@ -8877,7 +9682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>44140</v>
       </c>
@@ -8918,7 +9723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>44141</v>
       </c>
@@ -8959,7 +9764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>44142</v>
       </c>
@@ -9000,7 +9805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>44144</v>
       </c>
@@ -9041,7 +9846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>44147</v>
       </c>
@@ -9082,7 +9887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>44149</v>
       </c>

--- a/giovinazzo-dati-covid-latest.xlsx
+++ b/giovinazzo-dati-covid-latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelesollecito/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC442DD-0394-3547-AF3F-182FE547E011}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EDCB73-A4C6-D849-80D5-40ABF4A88BBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1640" yWindow="460" windowWidth="33740" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -741,7 +741,7 @@
                   <c:v>44199</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>43834</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1908,7 +1908,7 @@
                   <c:v>44199</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>43834</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2751,7 +2751,7 @@
                   <c:v>44199</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>43834</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4893,7 +4893,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E130" sqref="E130"/>
+      <selection pane="bottomLeft" activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
-        <v>43834</v>
+        <v>44200</v>
       </c>
       <c r="B150" s="4">
         <v>188</v>
@@ -6114,9 +6114,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M134"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M135" sqref="M135"/>
+    <sheetView topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11558,7 +11558,7 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
-        <v>43834</v>
+        <v>44200</v>
       </c>
       <c r="B134" s="4">
         <v>460</v>

--- a/giovinazzo-dati-covid-latest.xlsx
+++ b/giovinazzo-dati-covid-latest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelesollecito/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelesollecito/Documents/GitHub/DatiCovid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D792F76D-5A65-C245-B1C5-A5E3674A5E36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3474D3-B603-7145-B2AB-3A957D986BE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="460" windowWidth="33740" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="460" windowWidth="33740" windowHeight="19040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attualmente_positivi" sheetId="1" r:id="rId1"/>
@@ -295,10 +295,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>attualmente_positivi!$A$3:$A$163</c:f>
+              <c:f>attualmente_positivi!$A$3:$A$166</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="161"/>
+                <c:ptCount val="164"/>
                 <c:pt idx="0">
                   <c:v>43923</c:v>
                 </c:pt>
@@ -781,16 +781,25 @@
                 </c:pt>
                 <c:pt idx="160">
                   <c:v>44230</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>44233</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>44235</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>44236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>attualmente_positivi!$B$3:$B$163</c:f>
+              <c:f>attualmente_positivi!$B$3:$B$166</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="161"/>
+                <c:ptCount val="164"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -1273,6 +1282,15 @@
                 </c:pt>
                 <c:pt idx="160">
                   <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1588,10 +1606,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>totale_contagiati!$A$2:$A$147</c:f>
+              <c:f>totale_contagiati!$A$2:$A$150</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="146"/>
+                <c:ptCount val="149"/>
                 <c:pt idx="1">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -2026,16 +2044,25 @@
                 </c:pt>
                 <c:pt idx="145">
                   <c:v>44230</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>44233</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44235</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>totale_contagiati!$B$2:$B$147</c:f>
+              <c:f>totale_contagiati!$B$2:$B$150</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="146"/>
+                <c:ptCount val="149"/>
                 <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2470,6 +2497,15 @@
                 </c:pt>
                 <c:pt idx="145">
                   <c:v>627</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>645</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2509,10 +2545,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>totale_contagiati!$A$2:$A$147</c:f>
+              <c:f>totale_contagiati!$A$2:$A$150</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="146"/>
+                <c:ptCount val="149"/>
                 <c:pt idx="1">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -2947,16 +2983,25 @@
                 </c:pt>
                 <c:pt idx="145">
                   <c:v>44230</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>44233</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44235</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>totale_contagiati!$C$2:$C$147</c:f>
+              <c:f>totale_contagiati!$C$2:$C$150</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="146"/>
+                <c:ptCount val="149"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3391,6 +3436,15 @@
                 </c:pt>
                 <c:pt idx="145">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5123,11 +5177,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B163"/>
+  <dimension ref="A1:B166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B163" sqref="B163"/>
+      <selection pane="bottomLeft" activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6441,6 +6495,30 @@
         <v>122</v>
       </c>
     </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="3">
+        <v>44233</v>
+      </c>
+      <c r="B164" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="3">
+        <v>44235</v>
+      </c>
+      <c r="B165" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="3">
+        <v>44236</v>
+      </c>
+      <c r="B166" s="4">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6450,11 +6528,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M147"/>
+  <dimension ref="A1:M150"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M148" sqref="M148"/>
+      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12468,6 +12546,129 @@
         <v>10</v>
       </c>
     </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
+        <v>44233</v>
+      </c>
+      <c r="B148" s="4">
+        <v>639</v>
+      </c>
+      <c r="C148" s="4">
+        <v>12</v>
+      </c>
+      <c r="D148" s="4">
+        <v>19</v>
+      </c>
+      <c r="E148" s="4">
+        <v>48</v>
+      </c>
+      <c r="F148" s="4">
+        <v>77</v>
+      </c>
+      <c r="G148" s="4">
+        <v>80</v>
+      </c>
+      <c r="H148" s="4">
+        <v>117</v>
+      </c>
+      <c r="I148" s="4">
+        <v>127</v>
+      </c>
+      <c r="J148" s="4">
+        <v>69</v>
+      </c>
+      <c r="K148" s="4">
+        <v>65</v>
+      </c>
+      <c r="L148" s="4">
+        <v>27</v>
+      </c>
+      <c r="M148" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
+        <v>44235</v>
+      </c>
+      <c r="B149" s="4">
+        <v>645</v>
+      </c>
+      <c r="C149" s="4">
+        <v>6</v>
+      </c>
+      <c r="D149" s="4">
+        <v>19</v>
+      </c>
+      <c r="E149" s="4">
+        <v>48</v>
+      </c>
+      <c r="F149" s="4">
+        <v>79</v>
+      </c>
+      <c r="G149" s="4">
+        <v>80</v>
+      </c>
+      <c r="H149" s="4">
+        <v>121</v>
+      </c>
+      <c r="I149" s="4">
+        <v>127</v>
+      </c>
+      <c r="J149" s="4">
+        <v>69</v>
+      </c>
+      <c r="K149" s="4">
+        <v>65</v>
+      </c>
+      <c r="L149" s="4">
+        <v>27</v>
+      </c>
+      <c r="M149" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
+        <v>44236</v>
+      </c>
+      <c r="B150" s="4">
+        <v>674</v>
+      </c>
+      <c r="C150" s="4">
+        <v>29</v>
+      </c>
+      <c r="D150" s="4">
+        <v>19</v>
+      </c>
+      <c r="E150" s="4">
+        <v>48</v>
+      </c>
+      <c r="F150" s="4">
+        <v>85</v>
+      </c>
+      <c r="G150" s="4">
+        <v>81</v>
+      </c>
+      <c r="H150" s="4">
+        <v>125</v>
+      </c>
+      <c r="I150" s="4">
+        <v>136</v>
+      </c>
+      <c r="J150" s="4">
+        <v>73</v>
+      </c>
+      <c r="K150" s="4">
+        <v>65</v>
+      </c>
+      <c r="L150" s="4">
+        <v>30</v>
+      </c>
+      <c r="M150" s="4">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D1:M1"/>

--- a/giovinazzo-dati-covid-latest.xlsx
+++ b/giovinazzo-dati-covid-latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelesollecito/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelesollecito/Documents/GitHub/DatiCovid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C110FE-532A-FD4D-A0E6-964504D3DA73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADBD450-60CC-0A40-92EF-DAF25BA7EFB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="460" windowWidth="26120" windowHeight="19280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="460" windowWidth="26120" windowHeight="19280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attualmente_positivi" sheetId="1" r:id="rId1"/>
@@ -295,10 +295,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>attualmente_positivi!$A$3:$A$171</c:f>
+              <c:f>attualmente_positivi!$A$3:$A$172</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="169"/>
+                <c:ptCount val="170"/>
                 <c:pt idx="0">
                   <c:v>43923</c:v>
                 </c:pt>
@@ -805,16 +805,19 @@
                 </c:pt>
                 <c:pt idx="168">
                   <c:v>44244</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>44247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>attualmente_positivi!$B$3:$B$171</c:f>
+              <c:f>attualmente_positivi!$B$3:$B$172</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="169"/>
+                <c:ptCount val="170"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -1320,6 +1323,9 @@
                   <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="168">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="169">
                   <c:v>123</c:v>
                 </c:pt>
               </c:numCache>
@@ -1636,10 +1642,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>totale_contagiati!$A$2:$A$155</c:f>
+              <c:f>totale_contagiati!$A$2:$A$156</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="154"/>
+                <c:ptCount val="155"/>
                 <c:pt idx="1">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -2098,16 +2104,19 @@
                 </c:pt>
                 <c:pt idx="153">
                   <c:v>44244</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>totale_contagiati!$B$2:$B$155</c:f>
+              <c:f>totale_contagiati!$B$2:$B$156</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="154"/>
+                <c:ptCount val="155"/>
                 <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2566,6 +2575,9 @@
                 </c:pt>
                 <c:pt idx="153">
                   <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2605,10 +2617,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>totale_contagiati!$A$2:$A$155</c:f>
+              <c:f>totale_contagiati!$A$2:$A$156</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="154"/>
+                <c:ptCount val="155"/>
                 <c:pt idx="1">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -3067,16 +3079,19 @@
                 </c:pt>
                 <c:pt idx="153">
                   <c:v>44244</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>totale_contagiati!$C$2:$C$155</c:f>
+              <c:f>totale_contagiati!$C$2:$C$156</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="154"/>
+                <c:ptCount val="155"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3535,6 +3550,9 @@
                 </c:pt>
                 <c:pt idx="153">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5267,11 +5285,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B171"/>
+  <dimension ref="A1:B172"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D175" sqref="D175"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6649,6 +6667,14 @@
         <v>123</v>
       </c>
     </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="3">
+        <v>44247</v>
+      </c>
+      <c r="B172" s="4">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6658,11 +6684,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M155"/>
+  <dimension ref="A1:M156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomLeft" activeCell="M157" sqref="M157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13004,6 +13030,47 @@
         <v>13</v>
       </c>
     </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A156" s="3">
+        <v>44247</v>
+      </c>
+      <c r="B156" s="4">
+        <v>742</v>
+      </c>
+      <c r="C156" s="4">
+        <v>20</v>
+      </c>
+      <c r="D156" s="4">
+        <v>20</v>
+      </c>
+      <c r="E156" s="4">
+        <v>53</v>
+      </c>
+      <c r="F156" s="4">
+        <v>91</v>
+      </c>
+      <c r="G156" s="4">
+        <v>91</v>
+      </c>
+      <c r="H156" s="4">
+        <v>132</v>
+      </c>
+      <c r="I156" s="4">
+        <v>150</v>
+      </c>
+      <c r="J156" s="4">
+        <v>85</v>
+      </c>
+      <c r="K156" s="4">
+        <v>71</v>
+      </c>
+      <c r="L156" s="4">
+        <v>36</v>
+      </c>
+      <c r="M156" s="4">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D1:M1"/>

--- a/giovinazzo-dati-covid-latest.xlsx
+++ b/giovinazzo-dati-covid-latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelesollecito/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3735F672-45A5-A947-8FCD-EF0C089727A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F760E3-5C68-A842-8B97-5A96832B079B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="460" windowWidth="29740" windowHeight="19280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2560" yWindow="460" windowWidth="29740" windowHeight="19280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attualmente_positivi" sheetId="1" r:id="rId1"/>
@@ -1654,10 +1654,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>totale_contagiati!$A$2:$A$157</c:f>
+              <c:f>totale_contagiati!$A$2:$A$159</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="156"/>
+                <c:ptCount val="158"/>
                 <c:pt idx="1">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -2122,16 +2122,22 @@
                 </c:pt>
                 <c:pt idx="155">
                   <c:v>44250</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44251</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>totale_contagiati!$B$2:$B$157</c:f>
+              <c:f>totale_contagiati!$B$2:$B$159</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="156"/>
+                <c:ptCount val="158"/>
                 <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2596,6 +2602,12 @@
                 </c:pt>
                 <c:pt idx="155">
                   <c:v>754</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>759</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2635,10 +2647,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>totale_contagiati!$A$2:$A$157</c:f>
+              <c:f>totale_contagiati!$A$2:$A$159</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="156"/>
+                <c:ptCount val="158"/>
                 <c:pt idx="1">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -3103,16 +3115,22 @@
                 </c:pt>
                 <c:pt idx="155">
                   <c:v>44250</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44251</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>totale_contagiati!$C$2:$C$157</c:f>
+              <c:f>totale_contagiati!$C$2:$C$159</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="156"/>
+                <c:ptCount val="158"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3577,6 +3595,12 @@
                 </c:pt>
                 <c:pt idx="155">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5309,11 +5333,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B174"/>
+  <dimension ref="A1:B175"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B175" sqref="B175"/>
+      <selection pane="bottomLeft" activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6715,6 +6739,14 @@
         <v>105</v>
       </c>
     </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="3">
+        <v>44254</v>
+      </c>
+      <c r="B175" s="4">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6724,11 +6756,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M157"/>
+  <dimension ref="A1:M159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C159" sqref="C159"/>
+      <selection pane="bottomLeft" activeCell="E163" sqref="D163:E163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13152,6 +13184,88 @@
         <v>14</v>
       </c>
     </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A158" s="3">
+        <v>44251</v>
+      </c>
+      <c r="B158" s="4">
+        <v>759</v>
+      </c>
+      <c r="C158" s="4">
+        <v>5</v>
+      </c>
+      <c r="D158" s="4">
+        <v>22</v>
+      </c>
+      <c r="E158" s="4">
+        <v>54</v>
+      </c>
+      <c r="F158" s="4">
+        <v>93</v>
+      </c>
+      <c r="G158" s="4">
+        <v>91</v>
+      </c>
+      <c r="H158" s="4">
+        <v>133</v>
+      </c>
+      <c r="I158" s="4">
+        <v>155</v>
+      </c>
+      <c r="J158" s="4">
+        <v>89</v>
+      </c>
+      <c r="K158" s="4">
+        <v>72</v>
+      </c>
+      <c r="L158" s="4">
+        <v>36</v>
+      </c>
+      <c r="M158" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A159" s="3">
+        <v>44254</v>
+      </c>
+      <c r="B159" s="4">
+        <v>775</v>
+      </c>
+      <c r="C159" s="4">
+        <v>16</v>
+      </c>
+      <c r="D159" s="4">
+        <v>23</v>
+      </c>
+      <c r="E159" s="4">
+        <v>56</v>
+      </c>
+      <c r="F159" s="4">
+        <v>96</v>
+      </c>
+      <c r="G159" s="4">
+        <v>93</v>
+      </c>
+      <c r="H159" s="4">
+        <v>134</v>
+      </c>
+      <c r="I159" s="4">
+        <v>159</v>
+      </c>
+      <c r="J159" s="4">
+        <v>92</v>
+      </c>
+      <c r="K159" s="4">
+        <v>72</v>
+      </c>
+      <c r="L159" s="4">
+        <v>36</v>
+      </c>
+      <c r="M159" s="4">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D1:M1"/>

--- a/giovinazzo-dati-covid-latest.xlsx
+++ b/giovinazzo-dati-covid-latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelesollecito/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F760E3-5C68-A842-8B97-5A96832B079B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C6D04C-6ED9-CF4E-8978-CDC24C97D2B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="460" windowWidth="29740" windowHeight="19280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3100" yWindow="460" windowWidth="29740" windowHeight="19280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attualmente_positivi" sheetId="1" r:id="rId1"/>
@@ -295,10 +295,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>attualmente_positivi!$A$3:$A$174</c:f>
+              <c:f>attualmente_positivi!$A$3:$A$176</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="172"/>
+                <c:ptCount val="174"/>
                 <c:pt idx="0">
                   <c:v>43923</c:v>
                 </c:pt>
@@ -814,16 +814,22 @@
                 </c:pt>
                 <c:pt idx="171">
                   <c:v>44251</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>44254</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>44257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>attualmente_positivi!$B$3:$B$174</c:f>
+              <c:f>attualmente_positivi!$B$3:$B$176</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="172"/>
+                <c:ptCount val="174"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -1339,6 +1345,12 @@
                 </c:pt>
                 <c:pt idx="171">
                   <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1654,10 +1666,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>totale_contagiati!$A$2:$A$159</c:f>
+              <c:f>totale_contagiati!$A$2:$A$160</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="158"/>
+                <c:ptCount val="159"/>
                 <c:pt idx="1">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -2128,16 +2140,19 @@
                 </c:pt>
                 <c:pt idx="157">
                   <c:v>44254</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>totale_contagiati!$B$2:$B$159</c:f>
+              <c:f>totale_contagiati!$B$2:$B$160</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="158"/>
+                <c:ptCount val="159"/>
                 <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2608,6 +2623,9 @@
                 </c:pt>
                 <c:pt idx="157">
                   <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>783</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2647,10 +2665,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>totale_contagiati!$A$2:$A$159</c:f>
+              <c:f>totale_contagiati!$A$2:$A$160</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="158"/>
+                <c:ptCount val="159"/>
                 <c:pt idx="1">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -3121,16 +3139,19 @@
                 </c:pt>
                 <c:pt idx="157">
                   <c:v>44254</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>totale_contagiati!$C$2:$C$159</c:f>
+              <c:f>totale_contagiati!$C$2:$C$160</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="158"/>
+                <c:ptCount val="159"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3601,6 +3622,9 @@
                 </c:pt>
                 <c:pt idx="157">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5333,11 +5357,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B175"/>
+  <dimension ref="A1:B176"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B176" sqref="B176"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6747,6 +6771,14 @@
         <v>106</v>
       </c>
     </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="3">
+        <v>44257</v>
+      </c>
+      <c r="B176" s="4">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6756,11 +6788,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M159"/>
+  <dimension ref="A1:M160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E163" sqref="D163:E163"/>
+      <selection pane="bottomLeft" activeCell="M161" sqref="M161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13266,6 +13298,47 @@
         <v>14</v>
       </c>
     </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A160" s="3">
+        <v>44257</v>
+      </c>
+      <c r="B160" s="4">
+        <v>783</v>
+      </c>
+      <c r="C160" s="4">
+        <v>8</v>
+      </c>
+      <c r="D160" s="4">
+        <v>25</v>
+      </c>
+      <c r="E160" s="4">
+        <v>56</v>
+      </c>
+      <c r="F160" s="4">
+        <v>98</v>
+      </c>
+      <c r="G160" s="4">
+        <v>93</v>
+      </c>
+      <c r="H160" s="4">
+        <v>136</v>
+      </c>
+      <c r="I160" s="4">
+        <v>159</v>
+      </c>
+      <c r="J160" s="4">
+        <v>94</v>
+      </c>
+      <c r="K160" s="4">
+        <v>72</v>
+      </c>
+      <c r="L160" s="4">
+        <v>36</v>
+      </c>
+      <c r="M160" s="4">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D1:M1"/>

--- a/giovinazzo-dati-covid-latest.xlsx
+++ b/giovinazzo-dati-covid-latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelesollecito/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087E53E5-DEBE-3F4D-BA1D-541851390B0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE186C45-E247-FF4B-B8F2-BD2A43BA5765}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="500" windowWidth="29740" windowHeight="19280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2920" yWindow="540" windowWidth="24900" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attualmente_positivi" sheetId="1" r:id="rId1"/>
@@ -295,10 +295,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>attualmente_positivi!$A$3:$A$181</c:f>
+              <c:f>attualmente_positivi!$A$3:$A$185</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="179"/>
+                <c:ptCount val="183"/>
                 <c:pt idx="0">
                   <c:v>43923</c:v>
                 </c:pt>
@@ -835,16 +835,28 @@
                 </c:pt>
                 <c:pt idx="178">
                   <c:v>44264</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>44265</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>44268</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>44269</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>44270</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>attualmente_positivi!$B$3:$B$181</c:f>
+              <c:f>attualmente_positivi!$B$3:$B$185</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="179"/>
+                <c:ptCount val="183"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -1381,6 +1393,18 @@
                 </c:pt>
                 <c:pt idx="178">
                   <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1696,10 +1720,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>totale_contagiati!$A$2:$A$165</c:f>
+              <c:f>totale_contagiati!$A$2:$A$169</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="164"/>
+                <c:ptCount val="168"/>
                 <c:pt idx="1">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -2188,16 +2212,28 @@
                 </c:pt>
                 <c:pt idx="163">
                   <c:v>44264</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44265</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>44268</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>44269</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>44270</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>totale_contagiati!$B$2:$B$165</c:f>
+              <c:f>totale_contagiati!$B$2:$B$169</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="164"/>
+                <c:ptCount val="168"/>
                 <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2686,6 +2722,18 @@
                 </c:pt>
                 <c:pt idx="163">
                   <c:v>824</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>848</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2725,10 +2773,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>totale_contagiati!$A$2:$A$165</c:f>
+              <c:f>totale_contagiati!$A$2:$A$169</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="164"/>
+                <c:ptCount val="168"/>
                 <c:pt idx="1">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -3217,16 +3265,28 @@
                 </c:pt>
                 <c:pt idx="163">
                   <c:v>44264</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44265</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>44268</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>44269</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>44270</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>totale_contagiati!$C$2:$C$165</c:f>
+              <c:f>totale_contagiati!$C$2:$C$169</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="164"/>
+                <c:ptCount val="168"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3715,6 +3775,18 @@
                 </c:pt>
                 <c:pt idx="163">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5447,11 +5519,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B181"/>
+  <dimension ref="A1:B185"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="B186" sqref="B186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6909,6 +6981,38 @@
         <v>99</v>
       </c>
     </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="3">
+        <v>44265</v>
+      </c>
+      <c r="B182" s="4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="3">
+        <v>44268</v>
+      </c>
+      <c r="B183" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="3">
+        <v>44269</v>
+      </c>
+      <c r="B184" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="3">
+        <v>44270</v>
+      </c>
+      <c r="B185" s="4">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6918,11 +7022,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M165"/>
+  <dimension ref="A1:M169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomLeft" activeCell="M170" sqref="M170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13674,6 +13778,170 @@
         <v>14</v>
       </c>
     </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A166" s="3">
+        <v>44265</v>
+      </c>
+      <c r="B166" s="4">
+        <v>835</v>
+      </c>
+      <c r="C166" s="4">
+        <v>11</v>
+      </c>
+      <c r="D166" s="4">
+        <v>26</v>
+      </c>
+      <c r="E166" s="4">
+        <v>56</v>
+      </c>
+      <c r="F166" s="4">
+        <v>109</v>
+      </c>
+      <c r="G166" s="4">
+        <v>98</v>
+      </c>
+      <c r="H166" s="4">
+        <v>148</v>
+      </c>
+      <c r="I166" s="4">
+        <v>164</v>
+      </c>
+      <c r="J166" s="4">
+        <v>101</v>
+      </c>
+      <c r="K166" s="4">
+        <v>77</v>
+      </c>
+      <c r="L166" s="4">
+        <v>42</v>
+      </c>
+      <c r="M166" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A167" s="3">
+        <v>44268</v>
+      </c>
+      <c r="B167" s="4">
+        <v>848</v>
+      </c>
+      <c r="C167" s="4">
+        <v>13</v>
+      </c>
+      <c r="D167" s="4">
+        <v>26</v>
+      </c>
+      <c r="E167" s="4">
+        <v>57</v>
+      </c>
+      <c r="F167" s="4">
+        <v>109</v>
+      </c>
+      <c r="G167" s="4">
+        <v>103</v>
+      </c>
+      <c r="H167" s="4">
+        <v>152</v>
+      </c>
+      <c r="I167" s="4">
+        <v>164</v>
+      </c>
+      <c r="J167" s="4">
+        <v>103</v>
+      </c>
+      <c r="K167" s="4">
+        <v>78</v>
+      </c>
+      <c r="L167" s="4">
+        <v>42</v>
+      </c>
+      <c r="M167" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A168" s="3">
+        <v>44269</v>
+      </c>
+      <c r="B168" s="4">
+        <v>850</v>
+      </c>
+      <c r="C168" s="4">
+        <v>2</v>
+      </c>
+      <c r="D168" s="4">
+        <v>26</v>
+      </c>
+      <c r="E168" s="4">
+        <v>57</v>
+      </c>
+      <c r="F168" s="4">
+        <v>109</v>
+      </c>
+      <c r="G168" s="4">
+        <v>103</v>
+      </c>
+      <c r="H168" s="4">
+        <v>152</v>
+      </c>
+      <c r="I168" s="4">
+        <v>164</v>
+      </c>
+      <c r="J168" s="4">
+        <v>104</v>
+      </c>
+      <c r="K168" s="4">
+        <v>79</v>
+      </c>
+      <c r="L168" s="4">
+        <v>42</v>
+      </c>
+      <c r="M168" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A169" s="3">
+        <v>44270</v>
+      </c>
+      <c r="B169" s="4">
+        <v>866</v>
+      </c>
+      <c r="C169" s="4">
+        <v>16</v>
+      </c>
+      <c r="D169" s="4">
+        <v>28</v>
+      </c>
+      <c r="E169" s="4">
+        <v>58</v>
+      </c>
+      <c r="F169" s="4">
+        <v>110</v>
+      </c>
+      <c r="G169" s="4">
+        <v>103</v>
+      </c>
+      <c r="H169" s="4">
+        <v>155</v>
+      </c>
+      <c r="I169" s="4">
+        <v>167</v>
+      </c>
+      <c r="J169" s="4">
+        <v>107</v>
+      </c>
+      <c r="K169" s="4">
+        <v>79</v>
+      </c>
+      <c r="L169" s="4">
+        <v>44</v>
+      </c>
+      <c r="M169" s="4">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D1:M1"/>

--- a/giovinazzo-dati-covid-latest.xlsx
+++ b/giovinazzo-dati-covid-latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelesollecito/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381356AD-29AA-6A40-894F-BCEE3EDCA19B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D15694-0F49-BF4F-B452-5DFBB195CCBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32120" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="500" windowWidth="32120" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attualmente_positivi" sheetId="1" r:id="rId1"/>
@@ -295,10 +295,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>attualmente_positivi!$A$3:$A$191</c:f>
+              <c:f>attualmente_positivi!$A$3:$A$195</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="189"/>
+                <c:ptCount val="193"/>
                 <c:pt idx="0">
                   <c:v>43923</c:v>
                 </c:pt>
@@ -865,16 +865,28 @@
                 </c:pt>
                 <c:pt idx="188">
                   <c:v>44279</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>44282</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>44283</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>44284</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>44285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>attualmente_positivi!$B$3:$B$191</c:f>
+              <c:f>attualmente_positivi!$B$3:$B$195</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="189"/>
+                <c:ptCount val="193"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -1441,6 +1453,18 @@
                 </c:pt>
                 <c:pt idx="188">
                   <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1756,10 +1780,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>totale_contagiati!$A$2:$A$175</c:f>
+              <c:f>totale_contagiati!$A$2:$A$179</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="174"/>
+                <c:ptCount val="178"/>
                 <c:pt idx="1">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -2278,16 +2302,28 @@
                 </c:pt>
                 <c:pt idx="173">
                   <c:v>44279</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>44282</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>44283</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>44284</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>44285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>totale_contagiati!$B$2:$B$175</c:f>
+              <c:f>totale_contagiati!$B$2:$B$179</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="174"/>
+                <c:ptCount val="178"/>
                 <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2806,6 +2842,18 @@
                 </c:pt>
                 <c:pt idx="173">
                   <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>973</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>989</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2845,10 +2893,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>totale_contagiati!$A$2:$A$175</c:f>
+              <c:f>totale_contagiati!$A$2:$A$179</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="174"/>
+                <c:ptCount val="178"/>
                 <c:pt idx="1">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -3367,16 +3415,28 @@
                 </c:pt>
                 <c:pt idx="173">
                   <c:v>44279</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>44282</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>44283</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>44284</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>44285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>totale_contagiati!$C$2:$C$175</c:f>
+              <c:f>totale_contagiati!$C$2:$C$179</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="174"/>
+                <c:ptCount val="178"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3895,6 +3955,18 @@
                 </c:pt>
                 <c:pt idx="173">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5627,11 +5699,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B191"/>
+  <dimension ref="A1:B195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B192" sqref="B192"/>
+      <selection pane="bottomLeft" activeCell="B196" sqref="B196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7169,6 +7241,38 @@
         <v>144</v>
       </c>
     </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="3">
+        <v>44282</v>
+      </c>
+      <c r="B192" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="3">
+        <v>44283</v>
+      </c>
+      <c r="B193" s="4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="3">
+        <v>44284</v>
+      </c>
+      <c r="B194" s="4">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="3">
+        <v>44285</v>
+      </c>
+      <c r="B195" s="4">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7178,11 +7282,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M175"/>
+  <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F178" sqref="F178"/>
+      <selection pane="bottomLeft" activeCell="P166" sqref="P166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14344,6 +14448,170 @@
         <v>16</v>
       </c>
     </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A176" s="3">
+        <v>44282</v>
+      </c>
+      <c r="B176" s="4">
+        <v>973</v>
+      </c>
+      <c r="C176" s="4">
+        <v>22</v>
+      </c>
+      <c r="D176" s="4">
+        <v>29</v>
+      </c>
+      <c r="E176" s="4">
+        <v>65</v>
+      </c>
+      <c r="F176" s="4">
+        <v>120</v>
+      </c>
+      <c r="G176" s="4">
+        <v>114</v>
+      </c>
+      <c r="H176" s="4">
+        <v>173</v>
+      </c>
+      <c r="I176" s="4">
+        <v>186</v>
+      </c>
+      <c r="J176" s="4">
+        <v>123</v>
+      </c>
+      <c r="K176" s="4">
+        <v>96</v>
+      </c>
+      <c r="L176" s="4">
+        <v>51</v>
+      </c>
+      <c r="M176" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A177" s="3">
+        <v>44283</v>
+      </c>
+      <c r="B177" s="4">
+        <v>984</v>
+      </c>
+      <c r="C177" s="4">
+        <v>11</v>
+      </c>
+      <c r="D177" s="4">
+        <v>29</v>
+      </c>
+      <c r="E177" s="4">
+        <v>65</v>
+      </c>
+      <c r="F177" s="4">
+        <v>122</v>
+      </c>
+      <c r="G177" s="4">
+        <v>114</v>
+      </c>
+      <c r="H177" s="4">
+        <v>174</v>
+      </c>
+      <c r="I177" s="4">
+        <v>189</v>
+      </c>
+      <c r="J177" s="4">
+        <v>123</v>
+      </c>
+      <c r="K177" s="4">
+        <v>98</v>
+      </c>
+      <c r="L177" s="4">
+        <v>54</v>
+      </c>
+      <c r="M177" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A178" s="3">
+        <v>44284</v>
+      </c>
+      <c r="B178" s="4">
+        <v>989</v>
+      </c>
+      <c r="C178" s="4">
+        <v>5</v>
+      </c>
+      <c r="D178" s="4">
+        <v>29</v>
+      </c>
+      <c r="E178" s="4">
+        <v>65</v>
+      </c>
+      <c r="F178" s="4">
+        <v>122</v>
+      </c>
+      <c r="G178" s="4">
+        <v>115</v>
+      </c>
+      <c r="H178" s="4">
+        <v>176</v>
+      </c>
+      <c r="I178" s="4">
+        <v>189</v>
+      </c>
+      <c r="J178" s="4">
+        <v>124</v>
+      </c>
+      <c r="K178" s="4">
+        <v>99</v>
+      </c>
+      <c r="L178" s="4">
+        <v>54</v>
+      </c>
+      <c r="M178" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A179" s="3">
+        <v>44285</v>
+      </c>
+      <c r="B179" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C179" s="4">
+        <v>13</v>
+      </c>
+      <c r="D179" s="4">
+        <v>30</v>
+      </c>
+      <c r="E179" s="4">
+        <v>66</v>
+      </c>
+      <c r="F179" s="4">
+        <v>122</v>
+      </c>
+      <c r="G179" s="4">
+        <v>120</v>
+      </c>
+      <c r="H179" s="4">
+        <v>177</v>
+      </c>
+      <c r="I179" s="4">
+        <v>191</v>
+      </c>
+      <c r="J179" s="4">
+        <v>125</v>
+      </c>
+      <c r="K179" s="4">
+        <v>100</v>
+      </c>
+      <c r="L179" s="4">
+        <v>55</v>
+      </c>
+      <c r="M179" s="4">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D1:M1"/>

--- a/giovinazzo-dati-covid-latest.xlsx
+++ b/giovinazzo-dati-covid-latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelesollecito/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A53048-96BD-8641-9FFC-41FDE4E386BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC338245-C129-E54D-80F2-C2DDB82BD0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="500" windowWidth="32780" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="500" windowWidth="32780" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attualmente_positivi" sheetId="1" r:id="rId1"/>
@@ -295,10 +295,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>attualmente_positivi!$A$3:$A$244</c:f>
+              <c:f>attualmente_positivi!$A$3:$A$246</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="242"/>
+                <c:ptCount val="244"/>
                 <c:pt idx="0">
                   <c:v>43923</c:v>
                 </c:pt>
@@ -1024,16 +1024,22 @@
                 </c:pt>
                 <c:pt idx="241">
                   <c:v>44361</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>44365</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>44368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>attualmente_positivi!$B$3:$B$244</c:f>
+              <c:f>attualmente_positivi!$B$3:$B$246</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="242"/>
+                <c:ptCount val="244"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -1759,6 +1765,12 @@
                 </c:pt>
                 <c:pt idx="241">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2074,10 +2086,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>totale_contagiati!$A$3:$A$228</c:f>
+              <c:f>totale_contagiati!$A$3:$A$230</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="226"/>
+                <c:ptCount val="228"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -2755,16 +2767,22 @@
                 </c:pt>
                 <c:pt idx="225">
                   <c:v>44361</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>44365</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>44368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>totale_contagiati!$B$3:$B$228</c:f>
+              <c:f>totale_contagiati!$B$3:$B$230</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="226"/>
+                <c:ptCount val="228"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -3441,6 +3459,12 @@
                   <c:v>1232</c:v>
                 </c:pt>
                 <c:pt idx="225">
+                  <c:v>1232</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1232</c:v>
+                </c:pt>
+                <c:pt idx="227">
                   <c:v>1232</c:v>
                 </c:pt>
               </c:numCache>
@@ -3481,10 +3505,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>totale_contagiati!$A$3:$A$228</c:f>
+              <c:f>totale_contagiati!$A$3:$A$230</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="226"/>
+                <c:ptCount val="228"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -4162,16 +4186,22 @@
                 </c:pt>
                 <c:pt idx="225">
                   <c:v>44361</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>44365</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>44368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>totale_contagiati!$C$3:$C$228</c:f>
+              <c:f>totale_contagiati!$C$3:$C$230</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="226"/>
+                <c:ptCount val="228"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4848,6 +4878,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="225">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="227">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6581,11 +6617,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B244"/>
+  <dimension ref="A1:B246"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B245" sqref="B245"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8547,6 +8583,22 @@
         <v>9</v>
       </c>
     </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" s="3">
+        <v>44365</v>
+      </c>
+      <c r="B245" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" s="3">
+        <v>44368</v>
+      </c>
+      <c r="B246" s="4">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8556,11 +8608,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M228"/>
+  <dimension ref="A1:M230"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D228" sqref="D228:M228"/>
+    <sheetView topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C233" sqref="C233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17895,6 +17947,88 @@
         <v>23</v>
       </c>
     </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A229" s="3">
+        <v>44365</v>
+      </c>
+      <c r="B229" s="4">
+        <v>1232</v>
+      </c>
+      <c r="C229" s="4">
+        <v>0</v>
+      </c>
+      <c r="D229" s="4">
+        <v>42</v>
+      </c>
+      <c r="E229" s="4">
+        <v>88</v>
+      </c>
+      <c r="F229" s="4">
+        <v>141</v>
+      </c>
+      <c r="G229" s="4">
+        <v>150</v>
+      </c>
+      <c r="H229" s="4">
+        <v>204</v>
+      </c>
+      <c r="I229" s="4">
+        <v>232</v>
+      </c>
+      <c r="J229" s="4">
+        <v>159</v>
+      </c>
+      <c r="K229" s="4">
+        <v>123</v>
+      </c>
+      <c r="L229" s="4">
+        <v>68</v>
+      </c>
+      <c r="M229" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A230" s="3">
+        <v>44368</v>
+      </c>
+      <c r="B230" s="4">
+        <v>1232</v>
+      </c>
+      <c r="C230" s="4">
+        <v>0</v>
+      </c>
+      <c r="D230" s="4">
+        <v>42</v>
+      </c>
+      <c r="E230" s="4">
+        <v>88</v>
+      </c>
+      <c r="F230" s="4">
+        <v>141</v>
+      </c>
+      <c r="G230" s="4">
+        <v>150</v>
+      </c>
+      <c r="H230" s="4">
+        <v>204</v>
+      </c>
+      <c r="I230" s="4">
+        <v>232</v>
+      </c>
+      <c r="J230" s="4">
+        <v>159</v>
+      </c>
+      <c r="K230" s="4">
+        <v>123</v>
+      </c>
+      <c r="L230" s="4">
+        <v>68</v>
+      </c>
+      <c r="M230" s="4">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D1:M1"/>

--- a/giovinazzo-dati-covid-latest.xlsx
+++ b/giovinazzo-dati-covid-latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelesollecito/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC154151-2CD0-944E-B086-0631DCF60569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB73B79F-2E7B-1A4B-BB55-D61B0AC90F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="500" windowWidth="32780" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1720" yWindow="500" windowWidth="32780" windowHeight="19460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attualmente_positivi" sheetId="1" r:id="rId1"/>
@@ -306,10 +306,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>attualmente_positivi!$A$3:$A$281</c:f>
+              <c:f>attualmente_positivi!$A$3:$A$283</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="279"/>
+                <c:ptCount val="281"/>
                 <c:pt idx="0">
                   <c:v>43923</c:v>
                 </c:pt>
@@ -1146,16 +1146,22 @@
                 </c:pt>
                 <c:pt idx="278">
                   <c:v>44475</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>44479</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>44482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>attualmente_positivi!$B$3:$B$281</c:f>
+              <c:f>attualmente_positivi!$B$3:$B$283</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="279"/>
+                <c:ptCount val="281"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -1991,6 +1997,12 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="278">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="280">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -2307,10 +2319,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>totale_contagiati!$A$3:$A$265</c:f>
+              <c:f>totale_contagiati!$A$3:$A$267</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="263"/>
+                <c:ptCount val="265"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -3099,16 +3111,22 @@
                 </c:pt>
                 <c:pt idx="262">
                   <c:v>44475</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>44479</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>44482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>totale_contagiati!$B$3:$B$265</c:f>
+              <c:f>totale_contagiati!$B$3:$B$267</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="263"/>
+                <c:ptCount val="265"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -3897,6 +3915,12 @@
                 </c:pt>
                 <c:pt idx="262">
                   <c:v>1274</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1274</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3936,10 +3960,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>totale_contagiati!$A$3:$A$265</c:f>
+              <c:f>totale_contagiati!$A$3:$A$267</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="263"/>
+                <c:ptCount val="265"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -4728,16 +4752,22 @@
                 </c:pt>
                 <c:pt idx="262">
                   <c:v>44475</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>44479</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>44482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>totale_contagiati!$C$3:$C$265</c:f>
+              <c:f>totale_contagiati!$C$3:$C$267</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="263"/>
+                <c:ptCount val="265"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5526,6 +5556,12 @@
                 </c:pt>
                 <c:pt idx="262">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7258,11 +7294,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B281"/>
+  <dimension ref="A1:B283"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B282" sqref="B282"/>
+      <selection pane="bottomLeft" activeCell="B284" sqref="B284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9520,6 +9556,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" s="3">
+        <v>44479</v>
+      </c>
+      <c r="B282" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" s="3">
+        <v>44482</v>
+      </c>
+      <c r="B283" s="4">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9529,11 +9581,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M265"/>
+  <dimension ref="A1:M267"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E268" sqref="E268"/>
+      <selection pane="bottomLeft" activeCell="G272" sqref="G272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20385,6 +20437,88 @@
         <v>23</v>
       </c>
     </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A266" s="3">
+        <v>44479</v>
+      </c>
+      <c r="B266" s="4">
+        <v>1274</v>
+      </c>
+      <c r="C266" s="4">
+        <v>0</v>
+      </c>
+      <c r="D266" s="4">
+        <v>44</v>
+      </c>
+      <c r="E266" s="4">
+        <v>93</v>
+      </c>
+      <c r="F266" s="4">
+        <v>150</v>
+      </c>
+      <c r="G266" s="4">
+        <v>156</v>
+      </c>
+      <c r="H266" s="4">
+        <v>212</v>
+      </c>
+      <c r="I266" s="4">
+        <v>234</v>
+      </c>
+      <c r="J266" s="4">
+        <v>168</v>
+      </c>
+      <c r="K266" s="4">
+        <v>126</v>
+      </c>
+      <c r="L266" s="4">
+        <v>68</v>
+      </c>
+      <c r="M266" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A267" s="3">
+        <v>44482</v>
+      </c>
+      <c r="B267" s="4">
+        <v>1275</v>
+      </c>
+      <c r="C267" s="4">
+        <v>1</v>
+      </c>
+      <c r="D267" s="4">
+        <v>45</v>
+      </c>
+      <c r="E267" s="4">
+        <v>93</v>
+      </c>
+      <c r="F267" s="4">
+        <v>150</v>
+      </c>
+      <c r="G267" s="4">
+        <v>156</v>
+      </c>
+      <c r="H267" s="4">
+        <v>212</v>
+      </c>
+      <c r="I267" s="4">
+        <v>234</v>
+      </c>
+      <c r="J267" s="4">
+        <v>168</v>
+      </c>
+      <c r="K267" s="4">
+        <v>126</v>
+      </c>
+      <c r="L267" s="4">
+        <v>68</v>
+      </c>
+      <c r="M267" s="4">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D1:M1"/>

--- a/giovinazzo-dati-covid-latest.xlsx
+++ b/giovinazzo-dati-covid-latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelesollecito/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68FD931-0480-A44B-BAB5-3406ACB11DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C104646C-665A-234A-AE5A-A2F4BC10313B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="500" windowWidth="32780" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1720" yWindow="500" windowWidth="32780" windowHeight="19460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attualmente_positivi" sheetId="1" r:id="rId1"/>
@@ -306,10 +306,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>attualmente_positivi!$A$3:$A$288</c:f>
+              <c:f>attualmente_positivi!$A$3:$A$291</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="286"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>43923</c:v>
                 </c:pt>
@@ -1167,16 +1167,25 @@
                 </c:pt>
                 <c:pt idx="285">
                   <c:v>44495</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>44497</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>44502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>attualmente_positivi!$B$3:$B$288</c:f>
+              <c:f>attualmente_positivi!$B$3:$B$291</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="286"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2034,6 +2043,15 @@
                 </c:pt>
                 <c:pt idx="285">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2349,10 +2367,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>totale_contagiati!$A$3:$A$272</c:f>
+              <c:f>totale_contagiati!$A$3:$A$275</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="270"/>
+                <c:ptCount val="273"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -3162,16 +3180,25 @@
                 </c:pt>
                 <c:pt idx="269">
                   <c:v>44495</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>44497</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>44502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>totale_contagiati!$B$3:$B$272</c:f>
+              <c:f>totale_contagiati!$B$3:$B$275</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="270"/>
+                <c:ptCount val="273"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -3981,6 +4008,15 @@
                 </c:pt>
                 <c:pt idx="269">
                   <c:v>1285</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1286</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1287</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1287</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4020,10 +4056,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>totale_contagiati!$A$3:$A$272</c:f>
+              <c:f>totale_contagiati!$A$3:$A$275</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="270"/>
+                <c:ptCount val="273"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -4833,16 +4869,25 @@
                 </c:pt>
                 <c:pt idx="269">
                   <c:v>44495</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>44497</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>44502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>totale_contagiati!$C$3:$C$272</c:f>
+              <c:f>totale_contagiati!$C$3:$C$275</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="270"/>
+                <c:ptCount val="273"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5652,6 +5697,15 @@
                 </c:pt>
                 <c:pt idx="269">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7384,11 +7438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B288"/>
+  <dimension ref="A1:B291"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B289" sqref="B289"/>
+      <selection pane="bottomLeft" activeCell="C277" sqref="C277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9702,6 +9756,30 @@
         <v>11</v>
       </c>
     </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" s="3">
+        <v>44497</v>
+      </c>
+      <c r="B289" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" s="3">
+        <v>44501</v>
+      </c>
+      <c r="B290" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" s="3">
+        <v>44502</v>
+      </c>
+      <c r="B291" s="4">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9711,11 +9789,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M272"/>
+  <dimension ref="A1:M275"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N271" sqref="N271"/>
+      <selection pane="bottomLeft" activeCell="D275" sqref="D275:M275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20854,6 +20932,129 @@
         <v>23</v>
       </c>
     </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A273" s="3">
+        <v>44497</v>
+      </c>
+      <c r="B273" s="4">
+        <v>1286</v>
+      </c>
+      <c r="C273" s="4">
+        <v>1</v>
+      </c>
+      <c r="D273" s="4">
+        <v>48</v>
+      </c>
+      <c r="E273" s="4">
+        <v>94</v>
+      </c>
+      <c r="F273" s="4">
+        <v>151</v>
+      </c>
+      <c r="G273" s="4">
+        <v>157</v>
+      </c>
+      <c r="H273" s="4">
+        <v>212</v>
+      </c>
+      <c r="I273" s="4">
+        <v>234</v>
+      </c>
+      <c r="J273" s="4">
+        <v>173</v>
+      </c>
+      <c r="K273" s="4">
+        <v>126</v>
+      </c>
+      <c r="L273" s="4">
+        <v>68</v>
+      </c>
+      <c r="M273" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A274" s="3">
+        <v>44501</v>
+      </c>
+      <c r="B274" s="4">
+        <v>1287</v>
+      </c>
+      <c r="C274" s="4">
+        <v>1</v>
+      </c>
+      <c r="D274" s="4">
+        <v>48</v>
+      </c>
+      <c r="E274" s="4">
+        <v>94</v>
+      </c>
+      <c r="F274" s="4">
+        <v>151</v>
+      </c>
+      <c r="G274" s="4">
+        <v>157</v>
+      </c>
+      <c r="H274" s="4">
+        <v>212</v>
+      </c>
+      <c r="I274" s="4">
+        <v>235</v>
+      </c>
+      <c r="J274" s="4">
+        <v>173</v>
+      </c>
+      <c r="K274" s="4">
+        <v>126</v>
+      </c>
+      <c r="L274" s="4">
+        <v>68</v>
+      </c>
+      <c r="M274" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A275" s="3">
+        <v>44502</v>
+      </c>
+      <c r="B275" s="4">
+        <v>1287</v>
+      </c>
+      <c r="C275" s="4">
+        <v>0</v>
+      </c>
+      <c r="D275" s="4">
+        <v>48</v>
+      </c>
+      <c r="E275" s="4">
+        <v>94</v>
+      </c>
+      <c r="F275" s="4">
+        <v>151</v>
+      </c>
+      <c r="G275" s="4">
+        <v>157</v>
+      </c>
+      <c r="H275" s="4">
+        <v>212</v>
+      </c>
+      <c r="I275" s="4">
+        <v>235</v>
+      </c>
+      <c r="J275" s="4">
+        <v>173</v>
+      </c>
+      <c r="K275" s="4">
+        <v>126</v>
+      </c>
+      <c r="L275" s="4">
+        <v>68</v>
+      </c>
+      <c r="M275" s="4">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D1:M1"/>

--- a/giovinazzo-dati-covid-latest.xlsx
+++ b/giovinazzo-dati-covid-latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelesollecito/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65233EA3-3553-994C-8D4E-2CF527BBB8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DDCB36-7203-854D-82E8-5B66EB87EE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="500" windowWidth="32780" windowHeight="19460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6880" yWindow="500" windowWidth="32780" windowHeight="19460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attualmente_positivi" sheetId="1" r:id="rId1"/>
@@ -306,10 +306,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>attualmente_positivi!$A$3:$A$306</c:f>
+              <c:f>attualmente_positivi!$A$3:$A$308</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="304"/>
+                <c:ptCount val="306"/>
                 <c:pt idx="0">
                   <c:v>43923</c:v>
                 </c:pt>
@@ -1221,16 +1221,22 @@
                 </c:pt>
                 <c:pt idx="303">
                   <c:v>44543</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>44544</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>44545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>attualmente_positivi!$B$3:$B$306</c:f>
+              <c:f>attualmente_positivi!$B$3:$B$308</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="304"/>
+                <c:ptCount val="306"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2142,6 +2148,12 @@
                 </c:pt>
                 <c:pt idx="303">
                   <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2457,10 +2469,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>totale_contagiati!$A$3:$A$290</c:f>
+              <c:f>totale_contagiati!$A$3:$A$291</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="288"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -3324,16 +3336,19 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>44543</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>44544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>totale_contagiati!$B$3:$B$290</c:f>
+              <c:f>totale_contagiati!$B$3:$B$291</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="288"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -4197,6 +4212,9 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>1351</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>1361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4236,10 +4254,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>totale_contagiati!$A$3:$A$290</c:f>
+              <c:f>totale_contagiati!$A$3:$A$291</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="288"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -5103,16 +5121,19 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>44543</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>44544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>totale_contagiati!$C$3:$C$290</c:f>
+              <c:f>totale_contagiati!$C$3:$C$291</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="288"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5976,6 +5997,9 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7708,11 +7732,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B306"/>
+  <dimension ref="A1:B308"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B307" sqref="B307"/>
+      <pane ySplit="1" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10170,6 +10194,22 @@
         <v>28</v>
       </c>
     </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" s="3">
+        <v>44544</v>
+      </c>
+      <c r="B307" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" s="3">
+        <v>44545</v>
+      </c>
+      <c r="B308" s="4">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10179,11 +10219,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M290"/>
+  <dimension ref="A1:M292"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K297" sqref="K297"/>
+      <pane ySplit="2" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D292" sqref="D292:M292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22060,6 +22100,88 @@
         <v>23</v>
       </c>
     </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A291" s="3">
+        <v>44544</v>
+      </c>
+      <c r="B291" s="4">
+        <v>1361</v>
+      </c>
+      <c r="C291" s="4">
+        <v>10</v>
+      </c>
+      <c r="D291" s="4">
+        <v>58</v>
+      </c>
+      <c r="E291" s="4">
+        <v>101</v>
+      </c>
+      <c r="F291" s="4">
+        <v>159</v>
+      </c>
+      <c r="G291" s="4">
+        <v>162</v>
+      </c>
+      <c r="H291" s="4">
+        <v>224</v>
+      </c>
+      <c r="I291" s="4">
+        <v>247</v>
+      </c>
+      <c r="J291" s="4">
+        <v>182</v>
+      </c>
+      <c r="K291" s="4">
+        <v>137</v>
+      </c>
+      <c r="L291" s="4">
+        <v>68</v>
+      </c>
+      <c r="M291" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A292" s="3">
+        <v>44545</v>
+      </c>
+      <c r="B292" s="4">
+        <v>1364</v>
+      </c>
+      <c r="C292" s="4">
+        <v>3</v>
+      </c>
+      <c r="D292" s="4">
+        <v>58</v>
+      </c>
+      <c r="E292" s="4">
+        <v>101</v>
+      </c>
+      <c r="F292" s="4">
+        <v>159</v>
+      </c>
+      <c r="G292" s="4">
+        <v>163</v>
+      </c>
+      <c r="H292" s="4">
+        <v>226</v>
+      </c>
+      <c r="I292" s="4">
+        <v>247</v>
+      </c>
+      <c r="J292" s="4">
+        <v>182</v>
+      </c>
+      <c r="K292" s="4">
+        <v>137</v>
+      </c>
+      <c r="L292" s="4">
+        <v>68</v>
+      </c>
+      <c r="M292" s="4">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D1:M1"/>

--- a/giovinazzo-dati-covid-latest.xlsx
+++ b/giovinazzo-dati-covid-latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelesollecito/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6476BAF-3CD2-6042-AD1E-DFBA7241B24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E417C1-7DD3-A64F-B2A7-575DC1215C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="500" windowWidth="32200" windowHeight="18060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="500" windowWidth="32200" windowHeight="18060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attualmente_positivi" sheetId="1" r:id="rId1"/>
@@ -309,10 +309,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>attualmente_positivi!$A$2:$A$320</c:f>
+              <c:f>attualmente_positivi!$A$2:$A$321</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="319"/>
+                <c:ptCount val="320"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -1269,16 +1269,19 @@
                 </c:pt>
                 <c:pt idx="318">
                   <c:v>44567</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>44569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>attualmente_positivi!$B$2:$B$320</c:f>
+              <c:f>attualmente_positivi!$B$2:$B$321</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="319"/>
+                <c:ptCount val="320"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2235,6 +2238,9 @@
                 </c:pt>
                 <c:pt idx="318">
                   <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>437</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2550,10 +2556,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>totale_contagiati!$A$3:$A$304</c:f>
+              <c:f>totale_contagiati!$A$3:$A$305</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="302"/>
+                <c:ptCount val="303"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -3459,16 +3465,19 @@
                 </c:pt>
                 <c:pt idx="301">
                   <c:v>44567</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>44569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>totale_contagiati!$B$3:$B$304</c:f>
+              <c:f>totale_contagiati!$B$3:$B$305</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="302"/>
+                <c:ptCount val="303"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -4374,6 +4383,9 @@
                 </c:pt>
                 <c:pt idx="301">
                   <c:v>1782</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1880</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4413,10 +4425,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>totale_contagiati!$A$3:$A$304</c:f>
+              <c:f>totale_contagiati!$A$3:$A$305</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="302"/>
+                <c:ptCount val="303"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -5322,16 +5334,19 @@
                 </c:pt>
                 <c:pt idx="301">
                   <c:v>44567</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>44569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>totale_contagiati!$C$3:$C$304</c:f>
+              <c:f>totale_contagiati!$C$3:$C$305</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="302"/>
+                <c:ptCount val="303"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6237,6 +6252,9 @@
                 </c:pt>
                 <c:pt idx="301">
                   <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7969,11 +7987,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B320"/>
+  <dimension ref="A1:B321"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A321" sqref="A321"/>
+      <pane ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B322" sqref="B322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10541,6 +10559,14 @@
       </c>
       <c r="B320" s="4">
         <v>380</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" s="3">
+        <v>44569</v>
+      </c>
+      <c r="B321" s="4">
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -10557,11 +10583,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M304"/>
+  <dimension ref="A1:M305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A288" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D309" sqref="D309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23009,6 +23035,47 @@
         <v>81</v>
       </c>
       <c r="M304" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A305" s="3">
+        <v>44569</v>
+      </c>
+      <c r="B305" s="4">
+        <v>1880</v>
+      </c>
+      <c r="C305" s="4">
+        <v>98</v>
+      </c>
+      <c r="D305" s="4">
+        <v>87</v>
+      </c>
+      <c r="E305" s="4">
+        <v>163</v>
+      </c>
+      <c r="F305" s="4">
+        <v>267</v>
+      </c>
+      <c r="G305" s="4">
+        <v>259</v>
+      </c>
+      <c r="H305" s="4">
+        <v>291</v>
+      </c>
+      <c r="I305" s="4">
+        <v>312</v>
+      </c>
+      <c r="J305" s="4">
+        <v>226</v>
+      </c>
+      <c r="K305" s="4">
+        <v>168</v>
+      </c>
+      <c r="L305" s="4">
+        <v>83</v>
+      </c>
+      <c r="M305" s="4">
         <v>24</v>
       </c>
     </row>

--- a/giovinazzo-dati-covid-latest.xlsx
+++ b/giovinazzo-dati-covid-latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelesollecito/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E2F79F-8D51-7F47-BC55-00BCB79E9D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF51A730-A18A-7843-BAB6-FFB5127A2BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="500" windowWidth="32200" windowHeight="18060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="500" windowWidth="32200" windowHeight="18060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attualmente_positivi" sheetId="1" r:id="rId1"/>
@@ -309,10 +309,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>attualmente_positivi!$A$2:$A$339</c:f>
+              <c:f>attualmente_positivi!$A$2:$A$341</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="338"/>
+                <c:ptCount val="340"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -1326,16 +1326,22 @@
                 </c:pt>
                 <c:pt idx="337">
                   <c:v>44606</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>44615</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>44619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>attualmente_positivi!$B$2:$B$339</c:f>
+              <c:f>attualmente_positivi!$B$2:$B$341</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="338"/>
+                <c:ptCount val="340"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2349,6 +2355,12 @@
                 </c:pt>
                 <c:pt idx="337">
                   <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2664,10 +2676,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>totale_contagiati!$A$3:$A$323</c:f>
+              <c:f>totale_contagiati!$A$3:$A$325</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="321"/>
+                <c:ptCount val="323"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -3630,16 +3642,22 @@
                 </c:pt>
                 <c:pt idx="320">
                   <c:v>44606</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>44615</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>44619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>totale_contagiati!$B$3:$B$323</c:f>
+              <c:f>totale_contagiati!$B$3:$B$325</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="321"/>
+                <c:ptCount val="323"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -4602,6 +4620,12 @@
                 </c:pt>
                 <c:pt idx="320">
                   <c:v>2896</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>2934</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>2983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4641,10 +4665,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>totale_contagiati!$A$3:$A$323</c:f>
+              <c:f>totale_contagiati!$A$3:$A$325</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="321"/>
+                <c:ptCount val="323"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -5607,16 +5631,22 @@
                 </c:pt>
                 <c:pt idx="320">
                   <c:v>44606</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>44615</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>44619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>totale_contagiati!$C$3:$C$323</c:f>
+              <c:f>totale_contagiati!$C$3:$C$325</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="321"/>
+                <c:ptCount val="323"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6579,6 +6609,12 @@
                 </c:pt>
                 <c:pt idx="320">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8311,11 +8347,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B339"/>
+  <dimension ref="A1:B341"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B340" sqref="B340"/>
+      <selection pane="bottomLeft" activeCell="B342" sqref="B342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11035,6 +11071,22 @@
       </c>
       <c r="B339" s="4">
         <v>210</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" s="3">
+        <v>44615</v>
+      </c>
+      <c r="B340" s="4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" s="3">
+        <v>44619</v>
+      </c>
+      <c r="B341" s="4">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -11051,11 +11103,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M323"/>
+  <dimension ref="A1:M325"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J330" sqref="J330"/>
+      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24283,6 +24335,88 @@
       </c>
       <c r="M323" s="4">
         <v>36</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A324" s="3">
+        <v>44615</v>
+      </c>
+      <c r="B324" s="4">
+        <v>2934</v>
+      </c>
+      <c r="C324" s="4">
+        <v>38</v>
+      </c>
+      <c r="D324" s="4">
+        <v>215</v>
+      </c>
+      <c r="E324" s="4">
+        <v>364</v>
+      </c>
+      <c r="F324" s="4">
+        <v>395</v>
+      </c>
+      <c r="G324" s="4">
+        <v>412</v>
+      </c>
+      <c r="H324" s="4">
+        <v>457</v>
+      </c>
+      <c r="I324" s="4">
+        <v>438</v>
+      </c>
+      <c r="J324" s="4">
+        <v>292</v>
+      </c>
+      <c r="K324" s="4">
+        <v>213</v>
+      </c>
+      <c r="L324" s="4">
+        <v>111</v>
+      </c>
+      <c r="M324" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A325" s="3">
+        <v>44619</v>
+      </c>
+      <c r="B325" s="4">
+        <v>2983</v>
+      </c>
+      <c r="C325" s="4">
+        <v>49</v>
+      </c>
+      <c r="D325" s="4">
+        <v>227</v>
+      </c>
+      <c r="E325" s="4">
+        <v>372</v>
+      </c>
+      <c r="F325" s="4">
+        <v>399</v>
+      </c>
+      <c r="G325" s="4">
+        <v>417</v>
+      </c>
+      <c r="H325" s="4">
+        <v>464</v>
+      </c>
+      <c r="I325" s="4">
+        <v>444</v>
+      </c>
+      <c r="J325" s="4">
+        <v>295</v>
+      </c>
+      <c r="K325" s="4">
+        <v>214</v>
+      </c>
+      <c r="L325" s="4">
+        <v>113</v>
+      </c>
+      <c r="M325" s="4">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/giovinazzo-dati-covid-latest.xlsx
+++ b/giovinazzo-dati-covid-latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelesollecito/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF51A730-A18A-7843-BAB6-FFB5127A2BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD1CF4B-5626-904F-BD4B-37F6802EDB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="500" windowWidth="32200" windowHeight="18060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3320" yWindow="500" windowWidth="32200" windowHeight="18060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attualmente_positivi" sheetId="1" r:id="rId1"/>
@@ -309,10 +309,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>attualmente_positivi!$A$2:$A$341</c:f>
+              <c:f>attualmente_positivi!$A$2:$A$343</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="340"/>
+                <c:ptCount val="342"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -1332,16 +1332,22 @@
                 </c:pt>
                 <c:pt idx="339">
                   <c:v>44619</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>44624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>attualmente_positivi!$B$2:$B$341</c:f>
+              <c:f>attualmente_positivi!$B$2:$B$343</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="340"/>
+                <c:ptCount val="342"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2361,6 +2367,12 @@
                 </c:pt>
                 <c:pt idx="339">
                   <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2676,10 +2688,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>totale_contagiati!$A$3:$A$325</c:f>
+              <c:f>totale_contagiati!$A$3:$A$327</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="323"/>
+                <c:ptCount val="325"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -3648,16 +3660,22 @@
                 </c:pt>
                 <c:pt idx="322">
                   <c:v>44619</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>44624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>totale_contagiati!$B$3:$B$325</c:f>
+              <c:f>totale_contagiati!$B$3:$B$327</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="323"/>
+                <c:ptCount val="325"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -4626,6 +4644,12 @@
                 </c:pt>
                 <c:pt idx="322">
                   <c:v>2983</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>2998</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>3044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4665,10 +4689,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>totale_contagiati!$A$3:$A$325</c:f>
+              <c:f>totale_contagiati!$A$3:$A$327</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="323"/>
+                <c:ptCount val="325"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -5637,16 +5661,22 @@
                 </c:pt>
                 <c:pt idx="322">
                   <c:v>44619</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>44624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>totale_contagiati!$C$3:$C$325</c:f>
+              <c:f>totale_contagiati!$C$3:$C$327</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="323"/>
+                <c:ptCount val="325"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6615,6 +6645,12 @@
                 </c:pt>
                 <c:pt idx="322">
                   <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8347,11 +8383,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B341"/>
+  <dimension ref="A1:B343"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B342" sqref="B342"/>
+      <selection pane="bottomLeft" activeCell="A344" sqref="A344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11087,6 +11123,22 @@
       </c>
       <c r="B341" s="4">
         <v>177</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" s="3">
+        <v>44621</v>
+      </c>
+      <c r="B342" s="4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" s="3">
+        <v>44624</v>
+      </c>
+      <c r="B343" s="4">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -11103,11 +11155,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M325"/>
+  <dimension ref="A1:M327"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
+      <selection pane="bottomLeft" activeCell="N326" sqref="N326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24416,6 +24468,88 @@
         <v>113</v>
       </c>
       <c r="M325" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A326" s="3">
+        <v>44621</v>
+      </c>
+      <c r="B326" s="4">
+        <v>2998</v>
+      </c>
+      <c r="C326" s="4">
+        <v>15</v>
+      </c>
+      <c r="D326" s="4">
+        <v>230</v>
+      </c>
+      <c r="E326" s="4">
+        <v>375</v>
+      </c>
+      <c r="F326" s="4">
+        <v>400</v>
+      </c>
+      <c r="G326" s="4">
+        <v>418</v>
+      </c>
+      <c r="H326" s="4">
+        <v>469</v>
+      </c>
+      <c r="I326" s="4">
+        <v>445</v>
+      </c>
+      <c r="J326" s="4">
+        <v>295</v>
+      </c>
+      <c r="K326" s="4">
+        <v>214</v>
+      </c>
+      <c r="L326" s="4">
+        <v>114</v>
+      </c>
+      <c r="M326" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A327" s="3">
+        <v>44624</v>
+      </c>
+      <c r="B327" s="4">
+        <v>3044</v>
+      </c>
+      <c r="C327" s="4">
+        <v>46</v>
+      </c>
+      <c r="D327" s="4">
+        <v>236</v>
+      </c>
+      <c r="E327" s="4">
+        <v>380</v>
+      </c>
+      <c r="F327" s="4">
+        <v>406</v>
+      </c>
+      <c r="G327" s="4">
+        <v>425</v>
+      </c>
+      <c r="H327" s="4">
+        <v>474</v>
+      </c>
+      <c r="I327" s="4">
+        <v>453</v>
+      </c>
+      <c r="J327" s="4">
+        <v>300</v>
+      </c>
+      <c r="K327" s="4">
+        <v>215</v>
+      </c>
+      <c r="L327" s="4">
+        <v>117</v>
+      </c>
+      <c r="M327" s="4">
         <v>38</v>
       </c>
     </row>

--- a/giovinazzo-dati-covid-latest.xlsx
+++ b/giovinazzo-dati-covid-latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniele.tarantino\Documents\open data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395ACD93-2F73-4922-906C-68C21297D7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDD630EB-411A-489E-BA78-0CB98C6AED87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,10 +244,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>attualmente_positivi!$A$2:$A$358</c:f>
+              <c:f>attualmente_positivi!$A$2:$A$359</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="357"/>
+                <c:ptCount val="358"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -1318,16 +1318,19 @@
                 </c:pt>
                 <c:pt idx="356">
                   <c:v>44781</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>44782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>attualmente_positivi!$B$2:$B$358</c:f>
+              <c:f>attualmente_positivi!$B$2:$B$359</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="357"/>
+                <c:ptCount val="358"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2398,6 +2401,9 @@
                 </c:pt>
                 <c:pt idx="356">
                   <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3530,11 +3536,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B358"/>
+  <dimension ref="A1:B359"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A358" sqref="A358"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A362" sqref="A362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6408,6 +6414,14 @@
         <v>109</v>
       </c>
     </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="2">
+        <v>44782</v>
+      </c>
+      <c r="B359" s="3">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>

--- a/giovinazzo-dati-covid-latest.xlsx
+++ b/giovinazzo-dati-covid-latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniele.tarantino\Documents\open data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDD630EB-411A-489E-BA78-0CB98C6AED87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4721B35-C99C-49D6-AC75-872ECEA65513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,10 +244,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>attualmente_positivi!$A$2:$A$359</c:f>
+              <c:f>attualmente_positivi!$A$2:$A$360</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="358"/>
+                <c:ptCount val="359"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -1321,16 +1321,19 @@
                 </c:pt>
                 <c:pt idx="357">
                   <c:v>44782</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>44783</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>attualmente_positivi!$B$2:$B$359</c:f>
+              <c:f>attualmente_positivi!$B$2:$B$360</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="358"/>
+                <c:ptCount val="359"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2404,6 +2407,9 @@
                 </c:pt>
                 <c:pt idx="357">
                   <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3536,11 +3542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B359"/>
+  <dimension ref="A1:B360"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A362" sqref="A362"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B360" sqref="B360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6422,6 +6428,14 @@
         <v>95</v>
       </c>
     </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="2">
+        <v>44783</v>
+      </c>
+      <c r="B360" s="3">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>

--- a/giovinazzo-dati-covid-latest.xlsx
+++ b/giovinazzo-dati-covid-latest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniele.tarantino\Documents\open data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniele.tarantino\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4721B35-C99C-49D6-AC75-872ECEA65513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE06999-2D5B-40EB-981F-5C392117DA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,10 +244,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>attualmente_positivi!$A$2:$A$360</c:f>
+              <c:f>attualmente_positivi!$A$2:$A$362</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="359"/>
+                <c:ptCount val="361"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -1324,16 +1324,22 @@
                 </c:pt>
                 <c:pt idx="358">
                   <c:v>44783</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>44795</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>44797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>attualmente_positivi!$B$2:$B$360</c:f>
+              <c:f>attualmente_positivi!$B$2:$B$362</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="359"/>
+                <c:ptCount val="361"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2410,6 +2416,12 @@
                 </c:pt>
                 <c:pt idx="358">
                   <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3542,11 +3554,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B360"/>
+  <dimension ref="A1:B362"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B360" sqref="B360"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B366" sqref="B366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6436,6 +6448,22 @@
         <v>84</v>
       </c>
     </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" s="2">
+        <v>44795</v>
+      </c>
+      <c r="B361" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="2">
+        <v>44797</v>
+      </c>
+      <c r="B362" s="3">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>

--- a/giovinazzo-dati-covid-latest.xlsx
+++ b/giovinazzo-dati-covid-latest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniele.tarantino\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniele.tarantino\Documents\GitHub\DatiCovid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE06999-2D5B-40EB-981F-5C392117DA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E519DA08-F4ED-4029-A2DD-54E330372C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,10 +244,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>attualmente_positivi!$A$2:$A$362</c:f>
+              <c:f>attualmente_positivi!$A$2:$A$368</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="361"/>
+                <c:ptCount val="367"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -1330,16 +1330,25 @@
                 </c:pt>
                 <c:pt idx="360">
                   <c:v>44797</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>44798</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>44802</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>44803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>attualmente_positivi!$B$2:$B$362</c:f>
+              <c:f>attualmente_positivi!$B$2:$B$368</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="361"/>
+                <c:ptCount val="367"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2422,6 +2431,15 @@
                 </c:pt>
                 <c:pt idx="360">
                   <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3554,11 +3572,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B362"/>
+  <dimension ref="A1:B365"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B366" sqref="B366"/>
+      <pane ySplit="1" topLeftCell="A349" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A371" sqref="A371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6464,6 +6482,30 @@
         <v>53</v>
       </c>
     </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" s="2">
+        <v>44798</v>
+      </c>
+      <c r="B363" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" s="2">
+        <v>44802</v>
+      </c>
+      <c r="B364" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" s="2">
+        <v>44803</v>
+      </c>
+      <c r="B365" s="3">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>

--- a/giovinazzo-dati-covid-latest.xlsx
+++ b/giovinazzo-dati-covid-latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniele.tarantino\Documents\GitHub\DatiCovid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E519DA08-F4ED-4029-A2DD-54E330372C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F792AA4-E0AA-40B3-A51C-86466BF003FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1340,6 +1340,15 @@
                 <c:pt idx="363">
                   <c:v>44803</c:v>
                 </c:pt>
+                <c:pt idx="364">
+                  <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>44805</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>44806</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2440,6 +2449,15 @@
                 </c:pt>
                 <c:pt idx="363">
                   <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3572,11 +3590,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B365"/>
+  <dimension ref="A1:B368"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A349" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A371" sqref="A371"/>
+      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A368" sqref="A368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6506,6 +6524,30 @@
         <v>47</v>
       </c>
     </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" s="2">
+        <v>44804</v>
+      </c>
+      <c r="B366" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" s="2">
+        <v>44805</v>
+      </c>
+      <c r="B367" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" s="2">
+        <v>44806</v>
+      </c>
+      <c r="B368" s="3">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>

--- a/giovinazzo-dati-covid-latest.xlsx
+++ b/giovinazzo-dati-covid-latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniele.tarantino\Documents\GitHub\DatiCovid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F792AA4-E0AA-40B3-A51C-86466BF003FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C68714D-27F6-47F4-A9D3-B8634E0F16A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5145" yWindow="2865" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attualmente_positivi" sheetId="1" r:id="rId1"/>
@@ -244,10 +244,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>attualmente_positivi!$A$2:$A$368</c:f>
+              <c:f>attualmente_positivi!$A$2:$A$376</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="367"/>
+                <c:ptCount val="375"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -1348,16 +1348,28 @@
                 </c:pt>
                 <c:pt idx="366">
                   <c:v>44806</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>44807</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>44808</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>44809</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>44810</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>attualmente_positivi!$B$2:$B$368</c:f>
+              <c:f>attualmente_positivi!$B$2:$B$376</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="367"/>
+                <c:ptCount val="375"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2458,6 +2470,18 @@
                 </c:pt>
                 <c:pt idx="366">
                   <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3590,11 +3614,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B368"/>
+  <dimension ref="A1:B372"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A368" sqref="A368"/>
+      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D373" sqref="D373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6548,6 +6572,38 @@
         <v>43</v>
       </c>
     </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="2">
+        <v>44807</v>
+      </c>
+      <c r="B369" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="2">
+        <v>44808</v>
+      </c>
+      <c r="B370" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="2">
+        <v>44809</v>
+      </c>
+      <c r="B371" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" s="2">
+        <v>44810</v>
+      </c>
+      <c r="B372" s="3">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>

--- a/giovinazzo-dati-covid-latest.xlsx
+++ b/giovinazzo-dati-covid-latest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniele.tarantino\Documents\GitHub\DatiCovid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C68714D-27F6-47F4-A9D3-B8634E0F16A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C2ABAC-2A13-4D3C-9C83-4387F035A133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5145" yWindow="2865" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,10 +244,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>attualmente_positivi!$A$2:$A$376</c:f>
+              <c:f>attualmente_positivi!$A$2:$A$378</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="375"/>
+                <c:ptCount val="377"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -1360,16 +1360,25 @@
                 </c:pt>
                 <c:pt idx="370">
                   <c:v>44810</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>44811</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>44812</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>44813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>attualmente_positivi!$B$2:$B$376</c:f>
+              <c:f>attualmente_positivi!$B$2:$B$378</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="375"/>
+                <c:ptCount val="377"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2482,6 +2491,15 @@
                 </c:pt>
                 <c:pt idx="370">
                   <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3614,11 +3632,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B372"/>
+  <dimension ref="A1:B375"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D373" sqref="D373"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B376" sqref="B376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6604,6 +6622,30 @@
         <v>35</v>
       </c>
     </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" s="2">
+        <v>44811</v>
+      </c>
+      <c r="B373" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" s="2">
+        <v>44812</v>
+      </c>
+      <c r="B374" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" s="2">
+        <v>44813</v>
+      </c>
+      <c r="B375" s="3">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>

--- a/giovinazzo-dati-covid-latest.xlsx
+++ b/giovinazzo-dati-covid-latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniele.tarantino\Documents\GitHub\DatiCovid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C2ABAC-2A13-4D3C-9C83-4387F035A133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504EEA91-726D-4D1A-99EF-AF65EE729D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5145" yWindow="2865" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attualmente_positivi" sheetId="1" r:id="rId1"/>
@@ -244,10 +244,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>attualmente_positivi!$A$2:$A$378</c:f>
+              <c:f>attualmente_positivi!$A$2:$A$391</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="377"/>
+                <c:ptCount val="390"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -1369,16 +1369,46 @@
                 </c:pt>
                 <c:pt idx="373">
                   <c:v>44813</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>44814</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>44815</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>44816</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>44817</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>44818</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>44819</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>44820</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>44821</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>44822</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>44823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>attualmente_positivi!$B$2:$B$378</c:f>
+              <c:f>attualmente_positivi!$B$2:$B$391</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="377"/>
+                <c:ptCount val="390"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2500,6 +2530,36 @@
                 </c:pt>
                 <c:pt idx="373">
                   <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3632,11 +3692,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B375"/>
+  <dimension ref="A1:B385"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B376" sqref="B376"/>
+      <pane ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C389" sqref="C389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6646,6 +6706,86 @@
         <v>36</v>
       </c>
     </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" s="2">
+        <v>44814</v>
+      </c>
+      <c r="B376" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="2">
+        <v>44815</v>
+      </c>
+      <c r="B377" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" s="2">
+        <v>44816</v>
+      </c>
+      <c r="B378" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" s="2">
+        <v>44817</v>
+      </c>
+      <c r="B379" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" s="2">
+        <v>44818</v>
+      </c>
+      <c r="B380" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" s="2">
+        <v>44819</v>
+      </c>
+      <c r="B381" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="2">
+        <v>44820</v>
+      </c>
+      <c r="B382" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" s="2">
+        <v>44821</v>
+      </c>
+      <c r="B383" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" s="2">
+        <v>44822</v>
+      </c>
+      <c r="B384" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" s="2">
+        <v>44823</v>
+      </c>
+      <c r="B385" s="3">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>

--- a/giovinazzo-dati-covid-latest.xlsx
+++ b/giovinazzo-dati-covid-latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniele.tarantino\Documents\GitHub\DatiCovid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2517FC4-1CD0-4080-B6AD-7A65927E917D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96B2A8D-C9CF-4EF2-B57A-EB9EA2F0798C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1520,6 +1520,27 @@
                 <c:pt idx="423">
                   <c:v>44879</c:v>
                 </c:pt>
+                <c:pt idx="424">
+                  <c:v>44880</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>44881</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>44883</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>44884</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>44885</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>44887</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>44888</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2800,6 +2821,27 @@
                 </c:pt>
                 <c:pt idx="423">
                   <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3932,11 +3974,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B425"/>
+  <dimension ref="A1:B432"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A408" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A424" sqref="A424:A425"/>
+      <pane ySplit="1" topLeftCell="A423" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B432" sqref="B432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7346,6 +7388,62 @@
         <v>34</v>
       </c>
     </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" s="2">
+        <v>44880</v>
+      </c>
+      <c r="B426" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" s="2">
+        <v>44881</v>
+      </c>
+      <c r="B427" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" s="2">
+        <v>44883</v>
+      </c>
+      <c r="B428" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" s="2">
+        <v>44884</v>
+      </c>
+      <c r="B429" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" s="2">
+        <v>44885</v>
+      </c>
+      <c r="B430" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" s="2">
+        <v>44887</v>
+      </c>
+      <c r="B431" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" s="2">
+        <v>44888</v>
+      </c>
+      <c r="B432" s="3">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>

--- a/giovinazzo-dati-covid-latest.xlsx
+++ b/giovinazzo-dati-covid-latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniele.tarantino\Documents\GitHub\DatiCovid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96B2A8D-C9CF-4EF2-B57A-EB9EA2F0798C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A386A2-30CA-48D8-9151-40CD38EC5CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,10 +244,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>attualmente_positivi!$A$2:$A$448</c:f>
+              <c:f>attualmente_positivi!$A$2:$A$642</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="447"/>
+                <c:ptCount val="641"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -1540,16 +1540,49 @@
                 </c:pt>
                 <c:pt idx="430">
                   <c:v>44888</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>44889</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>44890</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>44891</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>44892</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>44893</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>44894</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>44896</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>44897</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>44898</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>44899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>attualmente_positivi!$B$2:$B$448</c:f>
+              <c:f>attualmente_positivi!$B$2:$B$642</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="447"/>
+                <c:ptCount val="641"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2842,6 +2875,39 @@
                 </c:pt>
                 <c:pt idx="430">
                   <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3974,11 +4040,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B432"/>
+  <dimension ref="A1:B443"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A423" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B432" sqref="B432"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C433" sqref="C433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7444,6 +7510,94 @@
         <v>54</v>
       </c>
     </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" s="2">
+        <v>44889</v>
+      </c>
+      <c r="B433" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" s="2">
+        <v>44890</v>
+      </c>
+      <c r="B434" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" s="2">
+        <v>44891</v>
+      </c>
+      <c r="B435" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" s="2">
+        <v>44892</v>
+      </c>
+      <c r="B436" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" s="2">
+        <v>44893</v>
+      </c>
+      <c r="B437" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" s="2">
+        <v>44894</v>
+      </c>
+      <c r="B438" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" s="2">
+        <v>44895</v>
+      </c>
+      <c r="B439" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" s="2">
+        <v>44896</v>
+      </c>
+      <c r="B440" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" s="2">
+        <v>44897</v>
+      </c>
+      <c r="B441" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" s="2">
+        <v>44898</v>
+      </c>
+      <c r="B442" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" s="2">
+        <v>44899</v>
+      </c>
+      <c r="B443" s="3">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>

--- a/giovinazzo-dati-covid-latest.xlsx
+++ b/giovinazzo-dati-covid-latest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniele.tarantino\Documents\GitHub\DatiCovid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A386A2-30CA-48D8-9151-40CD38EC5CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8039CF51-9399-44BA-AB82-3476F246A0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,13 +17,6 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -244,10 +237,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>attualmente_positivi!$A$2:$A$642</c:f>
+              <c:f>attualmente_positivi!$A$2:$A$2170</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="641"/>
+                <c:ptCount val="2169"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
                 </c:pt>
@@ -1573,16 +1566,40 @@
                 </c:pt>
                 <c:pt idx="441">
                   <c:v>44899</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>44900</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>44901</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>44902</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>44903</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>44905</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>44906</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>44907</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>44914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>attualmente_positivi!$B$2:$B$642</c:f>
+              <c:f>attualmente_positivi!$B$2:$B$2170</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="641"/>
+                <c:ptCount val="2169"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2908,6 +2925,30 @@
                 </c:pt>
                 <c:pt idx="441">
                   <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4040,11 +4081,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B443"/>
+  <dimension ref="A1:B451"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C433" sqref="C433"/>
+      <pane ySplit="1" topLeftCell="A2146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D454" sqref="D454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7598,6 +7639,70 @@
         <v>58</v>
       </c>
     </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" s="2">
+        <v>44900</v>
+      </c>
+      <c r="B444" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" s="2">
+        <v>44901</v>
+      </c>
+      <c r="B445" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" s="2">
+        <v>44902</v>
+      </c>
+      <c r="B446" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" s="2">
+        <v>44903</v>
+      </c>
+      <c r="B447" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" s="2">
+        <v>44905</v>
+      </c>
+      <c r="B448" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" s="2">
+        <v>44906</v>
+      </c>
+      <c r="B449" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" s="2">
+        <v>44907</v>
+      </c>
+      <c r="B450" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" s="2">
+        <v>44914</v>
+      </c>
+      <c r="B451" s="3">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>

--- a/giovinazzo-dati-covid-latest.xlsx
+++ b/giovinazzo-dati-covid-latest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniele.tarantino\Documents\GitHub\DatiCovid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFF0982-3052-456E-8695-BA63E16B2C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D76C5A1-847C-4156-85FC-B5CF2DAB062E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1663,6 +1663,54 @@
                 <c:pt idx="473">
                   <c:v>44958</c:v>
                 </c:pt>
+                <c:pt idx="474">
+                  <c:v>44960</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>44961</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>44963</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>44966</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>44967</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>44969</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>44970</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>44974</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>44976</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>44984</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>44988</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>44993</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>44995</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>44999</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>45002</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>45004</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3093,6 +3141,54 @@
                 </c:pt>
                 <c:pt idx="473">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4225,11 +4321,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B475"/>
+  <dimension ref="A1:B491"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A469" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A475" sqref="A475"/>
+      <selection pane="bottomLeft" activeCell="F479" sqref="F479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8039,6 +8135,134 @@
         <v>7</v>
       </c>
     </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" s="2">
+        <v>44960</v>
+      </c>
+      <c r="B476" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" s="2">
+        <v>44961</v>
+      </c>
+      <c r="B477" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" s="2">
+        <v>44963</v>
+      </c>
+      <c r="B478" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" s="2">
+        <v>44966</v>
+      </c>
+      <c r="B479" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" s="2">
+        <v>44967</v>
+      </c>
+      <c r="B480" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" s="2">
+        <v>44969</v>
+      </c>
+      <c r="B481" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" s="2">
+        <v>44970</v>
+      </c>
+      <c r="B482" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" s="2">
+        <v>44974</v>
+      </c>
+      <c r="B483" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" s="2">
+        <v>44976</v>
+      </c>
+      <c r="B484" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" s="2">
+        <v>44984</v>
+      </c>
+      <c r="B485" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" s="2">
+        <v>44988</v>
+      </c>
+      <c r="B486" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" s="2">
+        <v>44993</v>
+      </c>
+      <c r="B487" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" s="2">
+        <v>44995</v>
+      </c>
+      <c r="B488" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" s="2">
+        <v>44999</v>
+      </c>
+      <c r="B489" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" s="2">
+        <v>45002</v>
+      </c>
+      <c r="B490" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" s="2">
+        <v>45004</v>
+      </c>
+      <c r="B491" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
